--- a/Code/Results/Cases/Case_4_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026667612605195</v>
+        <v>1.063624978641885</v>
       </c>
       <c r="D2">
-        <v>1.043976391570637</v>
+        <v>1.065527254603892</v>
       </c>
       <c r="E2">
-        <v>1.044872271997855</v>
+        <v>1.07607684021187</v>
       </c>
       <c r="F2">
-        <v>1.052612399558062</v>
+        <v>1.080735208821614</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06072636256897</v>
+        <v>1.049799515610171</v>
       </c>
       <c r="J2">
-        <v>1.04807893986904</v>
+        <v>1.06858939473689</v>
       </c>
       <c r="K2">
-        <v>1.054855265101036</v>
+        <v>1.06824025470723</v>
       </c>
       <c r="L2">
-        <v>1.055739953645426</v>
+        <v>1.078761724642886</v>
       </c>
       <c r="M2">
-        <v>1.063384373599553</v>
+        <v>1.083407866947428</v>
       </c>
       <c r="N2">
-        <v>1.018781728257711</v>
+        <v>1.02642921820604</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033177232030183</v>
+        <v>1.064959659140398</v>
       </c>
       <c r="D3">
-        <v>1.048973519007405</v>
+        <v>1.066556130166475</v>
       </c>
       <c r="E3">
-        <v>1.050814904283984</v>
+        <v>1.07734202337185</v>
       </c>
       <c r="F3">
-        <v>1.058353520697458</v>
+        <v>1.081947612596404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062924873089699</v>
+        <v>1.050146662359819</v>
       </c>
       <c r="J3">
-        <v>1.052802572157437</v>
+        <v>1.069577142982825</v>
       </c>
       <c r="K3">
-        <v>1.059015895077258</v>
+        <v>1.069084012965537</v>
       </c>
       <c r="L3">
-        <v>1.060836401853219</v>
+        <v>1.079843248133902</v>
       </c>
       <c r="M3">
-        <v>1.068290473933754</v>
+        <v>1.084437628448436</v>
       </c>
       <c r="N3">
-        <v>1.020446022103186</v>
+        <v>1.02676949508421</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037280349519438</v>
+        <v>1.06582281170965</v>
       </c>
       <c r="D4">
-        <v>1.052124716515021</v>
+        <v>1.067221220008263</v>
       </c>
       <c r="E4">
-        <v>1.054565749531911</v>
+        <v>1.078160483779806</v>
       </c>
       <c r="F4">
-        <v>1.061976485051499</v>
+        <v>1.082731777765999</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064296519393734</v>
+        <v>1.050369407673085</v>
       </c>
       <c r="J4">
-        <v>1.055776214400135</v>
+        <v>1.070215305210042</v>
       </c>
       <c r="K4">
-        <v>1.061632253438281</v>
+        <v>1.069628711574627</v>
       </c>
       <c r="L4">
-        <v>1.064047367968832</v>
+        <v>1.08054230508067</v>
       </c>
       <c r="M4">
-        <v>1.071380309097464</v>
+        <v>1.085103036708704</v>
       </c>
       <c r="N4">
-        <v>1.021492594258319</v>
+        <v>1.026989080796131</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03898046018654</v>
+        <v>1.066185570740643</v>
       </c>
       <c r="D5">
-        <v>1.053430661059539</v>
+        <v>1.067500667223467</v>
       </c>
       <c r="E5">
-        <v>1.056121061430338</v>
+        <v>1.078504519752365</v>
       </c>
       <c r="F5">
-        <v>1.063478589893603</v>
+        <v>1.083061361431485</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064861412429563</v>
+        <v>1.050462600113972</v>
       </c>
       <c r="J5">
-        <v>1.057007382415131</v>
+        <v>1.070483356942163</v>
       </c>
       <c r="K5">
-        <v>1.06271478975324</v>
+        <v>1.069857400727834</v>
       </c>
       <c r="L5">
-        <v>1.065377423090338</v>
+        <v>1.080836008718693</v>
       </c>
       <c r="M5">
-        <v>1.072659889676012</v>
+        <v>1.085382557088574</v>
       </c>
       <c r="N5">
-        <v>1.021925613769738</v>
+        <v>1.027081252564068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039264494748667</v>
+        <v>1.066246473208191</v>
       </c>
       <c r="D6">
-        <v>1.053648855777047</v>
+        <v>1.067547578512172</v>
       </c>
       <c r="E6">
-        <v>1.056380971415688</v>
+        <v>1.078562282353746</v>
       </c>
       <c r="F6">
-        <v>1.063729597371969</v>
+        <v>1.083116695391404</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064955584029737</v>
+        <v>1.050478221188888</v>
       </c>
       <c r="J6">
-        <v>1.057213014271376</v>
+        <v>1.070528350486498</v>
       </c>
       <c r="K6">
-        <v>1.06289555475101</v>
+        <v>1.069895780976062</v>
       </c>
       <c r="L6">
-        <v>1.065599608172201</v>
+        <v>1.080885312369</v>
       </c>
       <c r="M6">
-        <v>1.072873625110331</v>
+        <v>1.085429477111625</v>
       </c>
       <c r="N6">
-        <v>1.021997919978791</v>
+        <v>1.027096720297895</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.037303162477938</v>
+        <v>1.065827659342783</v>
       </c>
       <c r="D7">
-        <v>1.052142239437045</v>
+        <v>1.067224954608555</v>
       </c>
       <c r="E7">
-        <v>1.054586614982373</v>
+        <v>1.078165080978108</v>
       </c>
       <c r="F7">
-        <v>1.06199663742893</v>
+        <v>1.082736181988089</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064304113110861</v>
+        <v>1.05037065468099</v>
       </c>
       <c r="J7">
-        <v>1.055792738664994</v>
+        <v>1.070218887837957</v>
       </c>
       <c r="K7">
-        <v>1.061646785647029</v>
+        <v>1.069631768515324</v>
       </c>
       <c r="L7">
-        <v>1.064065216973517</v>
+        <v>1.080546230267094</v>
       </c>
       <c r="M7">
-        <v>1.071397481944017</v>
+        <v>1.085106772524741</v>
       </c>
       <c r="N7">
-        <v>1.021498407245965</v>
+        <v>1.026990312957201</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028890937287802</v>
+        <v>1.064076140556462</v>
       </c>
       <c r="D8">
-        <v>1.045682779036231</v>
+        <v>1.065875105959132</v>
       </c>
       <c r="E8">
-        <v>1.046900830667168</v>
+        <v>1.076504457254074</v>
       </c>
       <c r="F8">
-        <v>1.054572307447653</v>
+        <v>1.081145018376434</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061480185846631</v>
+        <v>1.049917225629255</v>
       </c>
       <c r="J8">
-        <v>1.049693024818765</v>
+        <v>1.068923412496602</v>
       </c>
       <c r="K8">
-        <v>1.056277559714026</v>
+        <v>1.068525670659341</v>
       </c>
       <c r="L8">
-        <v>1.057480876670684</v>
+        <v>1.079127389542017</v>
       </c>
       <c r="M8">
-        <v>1.065060521703782</v>
+        <v>1.083756070663817</v>
       </c>
       <c r="N8">
-        <v>1.019350655175889</v>
+        <v>1.026544340212745</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013170478074167</v>
+        <v>1.060985950546801</v>
       </c>
       <c r="D9">
-        <v>1.033627331572925</v>
+        <v>1.06349135309598</v>
       </c>
       <c r="E9">
-        <v>1.032582229669979</v>
+        <v>1.073576597386515</v>
       </c>
       <c r="F9">
-        <v>1.040735956556872</v>
+        <v>1.078338468464863</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056092073521217</v>
+        <v>1.049103775431842</v>
       </c>
       <c r="J9">
-        <v>1.038266574096997</v>
+        <v>1.066633037683048</v>
       </c>
       <c r="K9">
-        <v>1.046197410847299</v>
+        <v>1.066566783560792</v>
       </c>
       <c r="L9">
-        <v>1.045167910565718</v>
+        <v>1.076621278484578</v>
       </c>
       <c r="M9">
-        <v>1.053200971338048</v>
+        <v>1.081368848695684</v>
       </c>
       <c r="N9">
-        <v>1.015318869310873</v>
+        <v>1.025753883371209</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001991566157826</v>
+        <v>1.058923060311057</v>
       </c>
       <c r="D10">
-        <v>1.025071891958872</v>
+        <v>1.061898607656008</v>
       </c>
       <c r="E10">
-        <v>1.02243523976739</v>
+        <v>1.071623433004724</v>
       </c>
       <c r="F10">
-        <v>1.030928530449124</v>
+        <v>1.076465461333878</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05218932474516</v>
+        <v>1.048551705616694</v>
       </c>
       <c r="J10">
-        <v>1.030126389850721</v>
+        <v>1.065100882152704</v>
       </c>
       <c r="K10">
-        <v>1.039002755155813</v>
+        <v>1.065254155829114</v>
       </c>
       <c r="L10">
-        <v>1.036410899222428</v>
+        <v>1.074946402007857</v>
       </c>
       <c r="M10">
-        <v>1.044760946560458</v>
+        <v>1.079772449807235</v>
       </c>
       <c r="N10">
-        <v>1.012442015055277</v>
+        <v>1.02522377945582</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9969609494002111</v>
+        <v>1.058029102027826</v>
       </c>
       <c r="D11">
-        <v>1.021227590236199</v>
+        <v>1.061208056193058</v>
       </c>
       <c r="E11">
-        <v>1.017878555806929</v>
+        <v>1.070777355918633</v>
       </c>
       <c r="F11">
-        <v>1.026524088734983</v>
+        <v>1.075653926719289</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050417151846115</v>
+        <v>1.04831032349836</v>
       </c>
       <c r="J11">
-        <v>1.026460705234373</v>
+        <v>1.064436167104268</v>
       </c>
       <c r="K11">
-        <v>1.035759989165012</v>
+        <v>1.064684157764381</v>
       </c>
       <c r="L11">
-        <v>1.032471005263192</v>
+        <v>1.074220147562011</v>
       </c>
       <c r="M11">
-        <v>1.040962554679457</v>
+        <v>1.079079994172885</v>
       </c>
       <c r="N11">
-        <v>1.011145685290869</v>
+        <v>1.024993485780704</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9950614574040508</v>
+        <v>1.057696934694326</v>
       </c>
       <c r="D12">
-        <v>1.019777047732573</v>
+        <v>1.060951419689926</v>
       </c>
       <c r="E12">
-        <v>1.016159566737341</v>
+        <v>1.070463030245296</v>
       </c>
       <c r="F12">
-        <v>1.024862521387085</v>
+        <v>1.075352406978459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049745709275713</v>
+        <v>1.048220311880061</v>
       </c>
       <c r="J12">
-        <v>1.025076305866079</v>
+        <v>1.064189066928195</v>
       </c>
       <c r="K12">
-        <v>1.034534912155864</v>
+        <v>1.064472189147967</v>
       </c>
       <c r="L12">
-        <v>1.030983588016344</v>
+        <v>1.073950227815441</v>
       </c>
       <c r="M12">
-        <v>1.039528408349695</v>
+        <v>1.078822601609647</v>
       </c>
       <c r="N12">
-        <v>1.010656007888702</v>
+        <v>1.024907830112669</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9954703434305249</v>
+        <v>1.057768190825899</v>
       </c>
       <c r="D13">
-        <v>1.020089244228556</v>
+        <v>1.061006475236276</v>
       </c>
       <c r="E13">
-        <v>1.016529525502691</v>
+        <v>1.070530456709788</v>
       </c>
       <c r="F13">
-        <v>1.025220121976123</v>
+        <v>1.07541708763922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049890346481174</v>
+        <v>1.048239635604893</v>
       </c>
       <c r="J13">
-        <v>1.025374324072085</v>
+        <v>1.064242079643678</v>
       </c>
       <c r="K13">
-        <v>1.034798650674271</v>
+        <v>1.064517668303316</v>
       </c>
       <c r="L13">
-        <v>1.031303758223062</v>
+        <v>1.074008133647769</v>
       </c>
       <c r="M13">
-        <v>1.03983711833666</v>
+        <v>1.078877821545977</v>
       </c>
       <c r="N13">
-        <v>1.010761424314153</v>
+        <v>1.024926208732774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9968045815336786</v>
+        <v>1.058001647270209</v>
       </c>
       <c r="D14">
-        <v>1.021108158802849</v>
+        <v>1.061186845306419</v>
       </c>
       <c r="E14">
-        <v>1.017737014889688</v>
+        <v>1.070751374800903</v>
       </c>
       <c r="F14">
-        <v>1.026387275967402</v>
+        <v>1.075629004645755</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050361924089457</v>
+        <v>1.048302890288196</v>
       </c>
       <c r="J14">
-        <v>1.026346745515903</v>
+        <v>1.064415745729575</v>
       </c>
       <c r="K14">
-        <v>1.035659152301336</v>
+        <v>1.064666641403377</v>
       </c>
       <c r="L14">
-        <v>1.032348554388983</v>
+        <v>1.074197839121602</v>
       </c>
       <c r="M14">
-        <v>1.040844492244777</v>
+        <v>1.079058721786966</v>
       </c>
       <c r="N14">
-        <v>1.011105378348048</v>
+        <v>1.024986407794171</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.997622481164698</v>
+        <v>1.058145472597729</v>
       </c>
       <c r="D15">
-        <v>1.021732900444817</v>
+        <v>1.061297959306106</v>
       </c>
       <c r="E15">
-        <v>1.018477424375686</v>
+        <v>1.070887482345127</v>
       </c>
       <c r="F15">
-        <v>1.027102951915335</v>
+        <v>1.075759563062879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050650706295656</v>
+        <v>1.048341816967405</v>
       </c>
       <c r="J15">
-        <v>1.026942813472128</v>
+        <v>1.064522721157023</v>
       </c>
       <c r="K15">
-        <v>1.036186564941794</v>
+        <v>1.064758395985573</v>
       </c>
       <c r="L15">
-        <v>1.032989057517547</v>
+        <v>1.074314702096653</v>
       </c>
       <c r="M15">
-        <v>1.04146203479224</v>
+        <v>1.079170155969713</v>
       </c>
       <c r="N15">
-        <v>1.011316200497092</v>
+        <v>1.025023483244552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002321232926249</v>
+        <v>1.058982373987499</v>
       </c>
       <c r="D16">
-        <v>1.025323948387346</v>
+        <v>1.06194441849088</v>
       </c>
       <c r="E16">
-        <v>1.022734056549859</v>
+        <v>1.07167957682617</v>
       </c>
       <c r="F16">
-        <v>1.031217360572791</v>
+        <v>1.076519309208823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052305136882335</v>
+        <v>1.048567676116481</v>
       </c>
       <c r="J16">
-        <v>1.030366564988808</v>
+        <v>1.065144969855311</v>
       </c>
       <c r="K16">
-        <v>1.039215163842383</v>
+        <v>1.065291950359751</v>
       </c>
       <c r="L16">
-        <v>1.036669114869094</v>
+        <v>1.074994579339478</v>
       </c>
       <c r="M16">
-        <v>1.045009866658078</v>
+        <v>1.079818380196611</v>
       </c>
       <c r="N16">
-        <v>1.012526935300943</v>
+        <v>1.025239047302275</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005216172987852</v>
+        <v>1.059507146163167</v>
       </c>
       <c r="D17">
-        <v>1.027538025303913</v>
+        <v>1.062349687380377</v>
       </c>
       <c r="E17">
-        <v>1.02535918487421</v>
+        <v>1.072176342347614</v>
       </c>
       <c r="F17">
-        <v>1.033754730466779</v>
+        <v>1.076995739191326</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05332034226352</v>
+        <v>1.048708726369622</v>
       </c>
       <c r="J17">
-        <v>1.032475366669755</v>
+        <v>1.065534944886162</v>
       </c>
       <c r="K17">
-        <v>1.041079847462152</v>
+        <v>1.065626199134539</v>
       </c>
       <c r="L17">
-        <v>1.038936720496858</v>
+        <v>1.075420772684063</v>
       </c>
       <c r="M17">
-        <v>1.047195716186165</v>
+        <v>1.080224669734004</v>
       </c>
       <c r="N17">
-        <v>1.01327246705273</v>
+        <v>1.025374062132903</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006886574068094</v>
+        <v>1.059813168372133</v>
       </c>
       <c r="D18">
-        <v>1.02881609286428</v>
+        <v>1.06258598891415</v>
       </c>
       <c r="E18">
-        <v>1.026874795661386</v>
+        <v>1.072466064302762</v>
       </c>
       <c r="F18">
-        <v>1.035219649250053</v>
+        <v>1.077273583720834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05390461759102</v>
+        <v>1.048790773647273</v>
       </c>
       <c r="J18">
-        <v>1.033691915904736</v>
+        <v>1.065762287263922</v>
       </c>
       <c r="K18">
-        <v>1.042155294287221</v>
+        <v>1.065821004488446</v>
       </c>
       <c r="L18">
-        <v>1.04024521738086</v>
+        <v>1.075669265658171</v>
       </c>
       <c r="M18">
-        <v>1.048456930331968</v>
+        <v>1.08046153553055</v>
       </c>
       <c r="N18">
-        <v>1.013702478289423</v>
+        <v>1.025452741195721</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007453122989661</v>
+        <v>1.059917502543023</v>
       </c>
       <c r="D19">
-        <v>1.029249659748973</v>
+        <v>1.062666547293222</v>
       </c>
       <c r="E19">
-        <v>1.027388992652642</v>
+        <v>1.072564846509005</v>
       </c>
       <c r="F19">
-        <v>1.03571664315487</v>
+        <v>1.077368313301</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054102527866127</v>
+        <v>1.048818711528179</v>
       </c>
       <c r="J19">
-        <v>1.034104488114817</v>
+        <v>1.065839784284839</v>
       </c>
       <c r="K19">
-        <v>1.042519966787931</v>
+        <v>1.06588740163838</v>
       </c>
       <c r="L19">
-        <v>1.040689028745085</v>
+        <v>1.075753978741115</v>
       </c>
       <c r="M19">
-        <v>1.048884685981401</v>
+        <v>1.080542281050539</v>
       </c>
       <c r="N19">
-        <v>1.013848295178307</v>
+        <v>1.025479556400709</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00490746867555</v>
+        <v>1.05945085019508</v>
       </c>
       <c r="D20">
-        <v>1.027301869369164</v>
+        <v>1.062306214669501</v>
       </c>
       <c r="E20">
-        <v>1.025079158614481</v>
+        <v>1.072123047543688</v>
       </c>
       <c r="F20">
-        <v>1.033484067937788</v>
+        <v>1.076944627856291</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053212240722583</v>
+        <v>1.04869361628875</v>
       </c>
       <c r="J20">
-        <v>1.032250517626225</v>
+        <v>1.065493117047901</v>
       </c>
       <c r="K20">
-        <v>1.040881055402159</v>
+        <v>1.065590353589108</v>
       </c>
       <c r="L20">
-        <v>1.038694904283123</v>
+        <v>1.075375056371651</v>
       </c>
       <c r="M20">
-        <v>1.04696262931749</v>
+        <v>1.080181090732997</v>
       </c>
       <c r="N20">
-        <v>1.013192983503774</v>
+        <v>1.025359583856562</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.996412554658905</v>
+        <v>1.057932903276356</v>
       </c>
       <c r="D21">
-        <v>1.02080875139483</v>
+        <v>1.061133734560853</v>
       </c>
       <c r="E21">
-        <v>1.017382185766664</v>
+        <v>1.070686321473285</v>
       </c>
       <c r="F21">
-        <v>1.026044299764243</v>
+        <v>1.075566602592205</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050223427061223</v>
+        <v>1.048284273074443</v>
       </c>
       <c r="J21">
-        <v>1.026061035004221</v>
+        <v>1.064364610813168</v>
       </c>
       <c r="K21">
-        <v>1.035406336035212</v>
+        <v>1.064622779346833</v>
       </c>
       <c r="L21">
-        <v>1.032041564276273</v>
+        <v>1.074141979932289</v>
       </c>
       <c r="M21">
-        <v>1.040548501805649</v>
+        <v>1.079005456268362</v>
       </c>
       <c r="N21">
-        <v>1.011004322553474</v>
+        <v>1.024968683834582</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9908913508035523</v>
+        <v>1.056977863009681</v>
       </c>
       <c r="D22">
-        <v>1.016594603919263</v>
+        <v>1.060395767839757</v>
       </c>
       <c r="E22">
-        <v>1.012388731819635</v>
+        <v>1.069782675078682</v>
       </c>
       <c r="F22">
-        <v>1.021217659152956</v>
+        <v>1.074699721076656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048267521011359</v>
+        <v>1.048024868197976</v>
       </c>
       <c r="J22">
-        <v>1.022036603729274</v>
+        <v>1.063653942137919</v>
       </c>
       <c r="K22">
-        <v>1.031844334008005</v>
+        <v>1.064013002828604</v>
       </c>
       <c r="L22">
-        <v>1.027718696754811</v>
+        <v>1.073365788833646</v>
       </c>
       <c r="M22">
-        <v>1.036380191388574</v>
+        <v>1.078265223955729</v>
       </c>
       <c r="N22">
-        <v>1.009580676679662</v>
+        <v>1.024722247479185</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9938361689547974</v>
+        <v>1.057484210664048</v>
       </c>
       <c r="D23">
-        <v>1.018841665007778</v>
+        <v>1.060787052887062</v>
       </c>
       <c r="E23">
-        <v>1.015051166776695</v>
+        <v>1.070261746533988</v>
       </c>
       <c r="F23">
-        <v>1.023791147144902</v>
+        <v>1.07515931620109</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049311953556977</v>
+        <v>1.048162576871511</v>
       </c>
       <c r="J23">
-        <v>1.024183214996579</v>
+        <v>1.064030789310813</v>
       </c>
       <c r="K23">
-        <v>1.03374449363337</v>
+        <v>1.064336392675777</v>
       </c>
       <c r="L23">
-        <v>1.03002419266454</v>
+        <v>1.073777349393523</v>
       </c>
       <c r="M23">
-        <v>1.03860333318053</v>
+        <v>1.078657736916524</v>
       </c>
       <c r="N23">
-        <v>1.010340086902831</v>
+        <v>1.024852951100231</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005047014838967</v>
+        <v>1.059476288131378</v>
       </c>
       <c r="D24">
-        <v>1.027408619257425</v>
+        <v>1.062325858378754</v>
       </c>
       <c r="E24">
-        <v>1.025205738437029</v>
+        <v>1.072147129273328</v>
       </c>
       <c r="F24">
-        <v>1.033606415167323</v>
+        <v>1.076967723019939</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053261111436569</v>
+        <v>1.048700444578926</v>
       </c>
       <c r="J24">
-        <v>1.032352158764484</v>
+        <v>1.065512017628941</v>
       </c>
       <c r="K24">
-        <v>1.0409709185474</v>
+        <v>1.065606551131031</v>
       </c>
       <c r="L24">
-        <v>1.038804214249711</v>
+        <v>1.075395713909337</v>
       </c>
       <c r="M24">
-        <v>1.04706799362507</v>
+        <v>1.080200782566128</v>
       </c>
       <c r="N24">
-        <v>1.013228913629049</v>
+        <v>1.025366126191374</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.017350167828543</v>
+        <v>1.061785310000376</v>
       </c>
       <c r="D25">
-        <v>1.036830127961331</v>
+        <v>1.064108232223333</v>
       </c>
       <c r="E25">
-        <v>1.036383582147824</v>
+        <v>1.074333729057744</v>
       </c>
       <c r="F25">
-        <v>1.044409737243664</v>
+        <v>1.079064365927491</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057537125818334</v>
+        <v>1.049315789784432</v>
       </c>
       <c r="J25">
-        <v>1.041307412735495</v>
+        <v>1.067226067466837</v>
       </c>
       <c r="K25">
-        <v>1.048882394081643</v>
+        <v>1.067074375942775</v>
       </c>
       <c r="L25">
-        <v>1.048442174864152</v>
+        <v>1.077269886388566</v>
       </c>
       <c r="M25">
-        <v>1.056355657874477</v>
+        <v>1.081986859579553</v>
       </c>
       <c r="N25">
-        <v>1.01639269131157</v>
+        <v>1.025958784427353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063624978641885</v>
+        <v>1.026667612605194</v>
       </c>
       <c r="D2">
-        <v>1.065527254603892</v>
+        <v>1.043976391570637</v>
       </c>
       <c r="E2">
-        <v>1.07607684021187</v>
+        <v>1.044872271997855</v>
       </c>
       <c r="F2">
-        <v>1.080735208821614</v>
+        <v>1.052612399558062</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049799515610171</v>
+        <v>1.06072636256897</v>
       </c>
       <c r="J2">
-        <v>1.06858939473689</v>
+        <v>1.048078939869039</v>
       </c>
       <c r="K2">
-        <v>1.06824025470723</v>
+        <v>1.054855265101036</v>
       </c>
       <c r="L2">
-        <v>1.078761724642886</v>
+        <v>1.055739953645426</v>
       </c>
       <c r="M2">
-        <v>1.083407866947428</v>
+        <v>1.063384373599553</v>
       </c>
       <c r="N2">
-        <v>1.02642921820604</v>
+        <v>1.018781728257711</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.064959659140398</v>
+        <v>1.033177232030183</v>
       </c>
       <c r="D3">
-        <v>1.066556130166475</v>
+        <v>1.048973519007405</v>
       </c>
       <c r="E3">
-        <v>1.07734202337185</v>
+        <v>1.050814904283984</v>
       </c>
       <c r="F3">
-        <v>1.081947612596404</v>
+        <v>1.058353520697458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050146662359819</v>
+        <v>1.062924873089699</v>
       </c>
       <c r="J3">
-        <v>1.069577142982825</v>
+        <v>1.052802572157437</v>
       </c>
       <c r="K3">
-        <v>1.069084012965537</v>
+        <v>1.059015895077258</v>
       </c>
       <c r="L3">
-        <v>1.079843248133902</v>
+        <v>1.060836401853219</v>
       </c>
       <c r="M3">
-        <v>1.084437628448436</v>
+        <v>1.068290473933754</v>
       </c>
       <c r="N3">
-        <v>1.02676949508421</v>
+        <v>1.020446022103186</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06582281170965</v>
+        <v>1.037280349519438</v>
       </c>
       <c r="D4">
-        <v>1.067221220008263</v>
+        <v>1.05212471651502</v>
       </c>
       <c r="E4">
-        <v>1.078160483779806</v>
+        <v>1.054565749531911</v>
       </c>
       <c r="F4">
-        <v>1.082731777765999</v>
+        <v>1.061976485051498</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050369407673085</v>
+        <v>1.064296519393733</v>
       </c>
       <c r="J4">
-        <v>1.070215305210042</v>
+        <v>1.055776214400134</v>
       </c>
       <c r="K4">
-        <v>1.069628711574627</v>
+        <v>1.06163225343828</v>
       </c>
       <c r="L4">
-        <v>1.08054230508067</v>
+        <v>1.064047367968831</v>
       </c>
       <c r="M4">
-        <v>1.085103036708704</v>
+        <v>1.071380309097463</v>
       </c>
       <c r="N4">
-        <v>1.026989080796131</v>
+        <v>1.021492594258318</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.066185570740643</v>
+        <v>1.038980460186539</v>
       </c>
       <c r="D5">
-        <v>1.067500667223467</v>
+        <v>1.053430661059538</v>
       </c>
       <c r="E5">
-        <v>1.078504519752365</v>
+        <v>1.056121061430337</v>
       </c>
       <c r="F5">
-        <v>1.083061361431485</v>
+        <v>1.063478589893602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050462600113972</v>
+        <v>1.064861412429562</v>
       </c>
       <c r="J5">
-        <v>1.070483356942163</v>
+        <v>1.057007382415129</v>
       </c>
       <c r="K5">
-        <v>1.069857400727834</v>
+        <v>1.062714789753239</v>
       </c>
       <c r="L5">
-        <v>1.080836008718693</v>
+        <v>1.065377423090337</v>
       </c>
       <c r="M5">
-        <v>1.085382557088574</v>
+        <v>1.072659889676011</v>
       </c>
       <c r="N5">
-        <v>1.027081252564068</v>
+        <v>1.021925613769737</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066246473208191</v>
+        <v>1.039264494748669</v>
       </c>
       <c r="D6">
-        <v>1.067547578512172</v>
+        <v>1.053648855777049</v>
       </c>
       <c r="E6">
-        <v>1.078562282353746</v>
+        <v>1.05638097141569</v>
       </c>
       <c r="F6">
-        <v>1.083116695391404</v>
+        <v>1.063729597371971</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050478221188888</v>
+        <v>1.064955584029738</v>
       </c>
       <c r="J6">
-        <v>1.070528350486498</v>
+        <v>1.057213014271377</v>
       </c>
       <c r="K6">
-        <v>1.069895780976062</v>
+        <v>1.062895554751011</v>
       </c>
       <c r="L6">
-        <v>1.080885312369</v>
+        <v>1.065599608172204</v>
       </c>
       <c r="M6">
-        <v>1.085429477111625</v>
+        <v>1.072873625110333</v>
       </c>
       <c r="N6">
-        <v>1.027096720297895</v>
+        <v>1.021997919978792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065827659342783</v>
+        <v>1.037303162477938</v>
       </c>
       <c r="D7">
-        <v>1.067224954608555</v>
+        <v>1.052142239437045</v>
       </c>
       <c r="E7">
-        <v>1.078165080978108</v>
+        <v>1.054586614982372</v>
       </c>
       <c r="F7">
-        <v>1.082736181988089</v>
+        <v>1.061996637428929</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05037065468099</v>
+        <v>1.064304113110861</v>
       </c>
       <c r="J7">
-        <v>1.070218887837957</v>
+        <v>1.055792738664994</v>
       </c>
       <c r="K7">
-        <v>1.069631768515324</v>
+        <v>1.061646785647028</v>
       </c>
       <c r="L7">
-        <v>1.080546230267094</v>
+        <v>1.064065216973516</v>
       </c>
       <c r="M7">
-        <v>1.085106772524741</v>
+        <v>1.071397481944016</v>
       </c>
       <c r="N7">
-        <v>1.026990312957201</v>
+        <v>1.021498407245965</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064076140556462</v>
+        <v>1.028890937287802</v>
       </c>
       <c r="D8">
-        <v>1.065875105959132</v>
+        <v>1.045682779036231</v>
       </c>
       <c r="E8">
-        <v>1.076504457254074</v>
+        <v>1.046900830667167</v>
       </c>
       <c r="F8">
-        <v>1.081145018376434</v>
+        <v>1.054572307447653</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049917225629255</v>
+        <v>1.061480185846631</v>
       </c>
       <c r="J8">
-        <v>1.068923412496602</v>
+        <v>1.049693024818765</v>
       </c>
       <c r="K8">
-        <v>1.068525670659341</v>
+        <v>1.056277559714026</v>
       </c>
       <c r="L8">
-        <v>1.079127389542017</v>
+        <v>1.057480876670683</v>
       </c>
       <c r="M8">
-        <v>1.083756070663817</v>
+        <v>1.065060521703781</v>
       </c>
       <c r="N8">
-        <v>1.026544340212745</v>
+        <v>1.019350655175889</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060985950546801</v>
+        <v>1.013170478074165</v>
       </c>
       <c r="D9">
-        <v>1.06349135309598</v>
+        <v>1.033627331572924</v>
       </c>
       <c r="E9">
-        <v>1.073576597386515</v>
+        <v>1.032582229669978</v>
       </c>
       <c r="F9">
-        <v>1.078338468464863</v>
+        <v>1.040735956556871</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049103775431842</v>
+        <v>1.056092073521216</v>
       </c>
       <c r="J9">
-        <v>1.066633037683048</v>
+        <v>1.038266574096996</v>
       </c>
       <c r="K9">
-        <v>1.066566783560792</v>
+        <v>1.046197410847298</v>
       </c>
       <c r="L9">
-        <v>1.076621278484578</v>
+        <v>1.045167910565717</v>
       </c>
       <c r="M9">
-        <v>1.081368848695684</v>
+        <v>1.053200971338047</v>
       </c>
       <c r="N9">
-        <v>1.025753883371209</v>
+        <v>1.015318869310872</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058923060311057</v>
+        <v>1.001991566157826</v>
       </c>
       <c r="D10">
-        <v>1.061898607656008</v>
+        <v>1.025071891958872</v>
       </c>
       <c r="E10">
-        <v>1.071623433004724</v>
+        <v>1.02243523976739</v>
       </c>
       <c r="F10">
-        <v>1.076465461333878</v>
+        <v>1.030928530449125</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048551705616694</v>
+        <v>1.05218932474516</v>
       </c>
       <c r="J10">
-        <v>1.065100882152704</v>
+        <v>1.030126389850722</v>
       </c>
       <c r="K10">
-        <v>1.065254155829114</v>
+        <v>1.039002755155813</v>
       </c>
       <c r="L10">
-        <v>1.074946402007857</v>
+        <v>1.036410899222429</v>
       </c>
       <c r="M10">
-        <v>1.079772449807235</v>
+        <v>1.044760946560459</v>
       </c>
       <c r="N10">
-        <v>1.02522377945582</v>
+        <v>1.012442015055277</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058029102027826</v>
+        <v>0.9969609494002143</v>
       </c>
       <c r="D11">
-        <v>1.061208056193058</v>
+        <v>1.021227590236202</v>
       </c>
       <c r="E11">
-        <v>1.070777355918633</v>
+        <v>1.017878555806933</v>
       </c>
       <c r="F11">
-        <v>1.075653926719289</v>
+        <v>1.026524088734986</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04831032349836</v>
+        <v>1.050417151846116</v>
       </c>
       <c r="J11">
-        <v>1.064436167104268</v>
+        <v>1.026460705234377</v>
       </c>
       <c r="K11">
-        <v>1.064684157764381</v>
+        <v>1.035759989165015</v>
       </c>
       <c r="L11">
-        <v>1.074220147562011</v>
+        <v>1.032471005263195</v>
       </c>
       <c r="M11">
-        <v>1.079079994172885</v>
+        <v>1.04096255467946</v>
       </c>
       <c r="N11">
-        <v>1.024993485780704</v>
+        <v>1.01114568529087</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.057696934694326</v>
+        <v>0.9950614574040496</v>
       </c>
       <c r="D12">
-        <v>1.060951419689926</v>
+        <v>1.019777047732572</v>
       </c>
       <c r="E12">
-        <v>1.070463030245296</v>
+        <v>1.01615956673734</v>
       </c>
       <c r="F12">
-        <v>1.075352406978459</v>
+        <v>1.024862521387083</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048220311880061</v>
+        <v>1.049745709275713</v>
       </c>
       <c r="J12">
-        <v>1.064189066928195</v>
+        <v>1.025076305866077</v>
       </c>
       <c r="K12">
-        <v>1.064472189147967</v>
+        <v>1.034534912155862</v>
       </c>
       <c r="L12">
-        <v>1.073950227815441</v>
+        <v>1.030983588016342</v>
       </c>
       <c r="M12">
-        <v>1.078822601609647</v>
+        <v>1.039528408349693</v>
       </c>
       <c r="N12">
-        <v>1.024907830112669</v>
+        <v>1.010656007888701</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.057768190825899</v>
+        <v>0.9954703434305223</v>
       </c>
       <c r="D13">
-        <v>1.061006475236276</v>
+        <v>1.020089244228554</v>
       </c>
       <c r="E13">
-        <v>1.070530456709788</v>
+        <v>1.016529525502688</v>
       </c>
       <c r="F13">
-        <v>1.07541708763922</v>
+        <v>1.025220121976121</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048239635604893</v>
+        <v>1.049890346481173</v>
       </c>
       <c r="J13">
-        <v>1.064242079643678</v>
+        <v>1.025374324072082</v>
       </c>
       <c r="K13">
-        <v>1.064517668303316</v>
+        <v>1.034798650674268</v>
       </c>
       <c r="L13">
-        <v>1.074008133647769</v>
+        <v>1.031303758223059</v>
       </c>
       <c r="M13">
-        <v>1.078877821545977</v>
+        <v>1.039837118336658</v>
       </c>
       <c r="N13">
-        <v>1.024926208732774</v>
+        <v>1.010761424314152</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.058001647270209</v>
+        <v>0.9968045815336792</v>
       </c>
       <c r="D14">
-        <v>1.061186845306419</v>
+        <v>1.02110815880285</v>
       </c>
       <c r="E14">
-        <v>1.070751374800903</v>
+        <v>1.017737014889689</v>
       </c>
       <c r="F14">
-        <v>1.075629004645755</v>
+        <v>1.026387275967403</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048302890288196</v>
+        <v>1.050361924089458</v>
       </c>
       <c r="J14">
-        <v>1.064415745729575</v>
+        <v>1.026346745515904</v>
       </c>
       <c r="K14">
-        <v>1.064666641403377</v>
+        <v>1.035659152301336</v>
       </c>
       <c r="L14">
-        <v>1.074197839121602</v>
+        <v>1.032348554388984</v>
       </c>
       <c r="M14">
-        <v>1.079058721786966</v>
+        <v>1.040844492244778</v>
       </c>
       <c r="N14">
-        <v>1.024986407794171</v>
+        <v>1.011105378348048</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.058145472597729</v>
+        <v>0.9976224811646981</v>
       </c>
       <c r="D15">
-        <v>1.061297959306106</v>
+        <v>1.021732900444816</v>
       </c>
       <c r="E15">
-        <v>1.070887482345127</v>
+        <v>1.018477424375686</v>
       </c>
       <c r="F15">
-        <v>1.075759563062879</v>
+        <v>1.027102951915335</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048341816967405</v>
+        <v>1.050650706295656</v>
       </c>
       <c r="J15">
-        <v>1.064522721157023</v>
+        <v>1.026942813472129</v>
       </c>
       <c r="K15">
-        <v>1.064758395985573</v>
+        <v>1.036186564941794</v>
       </c>
       <c r="L15">
-        <v>1.074314702096653</v>
+        <v>1.032989057517547</v>
       </c>
       <c r="M15">
-        <v>1.079170155969713</v>
+        <v>1.04146203479224</v>
       </c>
       <c r="N15">
-        <v>1.025023483244552</v>
+        <v>1.011316200497092</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.058982373987499</v>
+        <v>1.002321232926251</v>
       </c>
       <c r="D16">
-        <v>1.06194441849088</v>
+        <v>1.025323948387347</v>
       </c>
       <c r="E16">
-        <v>1.07167957682617</v>
+        <v>1.02273405654986</v>
       </c>
       <c r="F16">
-        <v>1.076519309208823</v>
+        <v>1.031217360572792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048567676116481</v>
+        <v>1.052305136882336</v>
       </c>
       <c r="J16">
-        <v>1.065144969855311</v>
+        <v>1.030366564988809</v>
       </c>
       <c r="K16">
-        <v>1.065291950359751</v>
+        <v>1.039215163842384</v>
       </c>
       <c r="L16">
-        <v>1.074994579339478</v>
+        <v>1.036669114869095</v>
       </c>
       <c r="M16">
-        <v>1.079818380196611</v>
+        <v>1.045009866658079</v>
       </c>
       <c r="N16">
-        <v>1.025239047302275</v>
+        <v>1.012526935300943</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.059507146163167</v>
+        <v>1.005216172987853</v>
       </c>
       <c r="D17">
-        <v>1.062349687380377</v>
+        <v>1.027538025303913</v>
       </c>
       <c r="E17">
-        <v>1.072176342347614</v>
+        <v>1.025359184874211</v>
       </c>
       <c r="F17">
-        <v>1.076995739191326</v>
+        <v>1.03375473046678</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048708726369622</v>
+        <v>1.053320342263521</v>
       </c>
       <c r="J17">
-        <v>1.065534944886162</v>
+        <v>1.032475366669756</v>
       </c>
       <c r="K17">
-        <v>1.065626199134539</v>
+        <v>1.041079847462153</v>
       </c>
       <c r="L17">
-        <v>1.075420772684063</v>
+        <v>1.038936720496859</v>
       </c>
       <c r="M17">
-        <v>1.080224669734004</v>
+        <v>1.047195716186166</v>
       </c>
       <c r="N17">
-        <v>1.025374062132903</v>
+        <v>1.01327246705273</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059813168372133</v>
+        <v>1.006886574068094</v>
       </c>
       <c r="D18">
-        <v>1.06258598891415</v>
+        <v>1.02881609286428</v>
       </c>
       <c r="E18">
-        <v>1.072466064302762</v>
+        <v>1.026874795661386</v>
       </c>
       <c r="F18">
-        <v>1.077273583720834</v>
+        <v>1.035219649250053</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048790773647273</v>
+        <v>1.053904617591021</v>
       </c>
       <c r="J18">
-        <v>1.065762287263922</v>
+        <v>1.033691915904736</v>
       </c>
       <c r="K18">
-        <v>1.065821004488446</v>
+        <v>1.042155294287221</v>
       </c>
       <c r="L18">
-        <v>1.075669265658171</v>
+        <v>1.040245217380861</v>
       </c>
       <c r="M18">
-        <v>1.08046153553055</v>
+        <v>1.048456930331968</v>
       </c>
       <c r="N18">
-        <v>1.025452741195721</v>
+        <v>1.013702478289423</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059917502543023</v>
+        <v>1.00745312298966</v>
       </c>
       <c r="D19">
-        <v>1.062666547293222</v>
+        <v>1.029249659748973</v>
       </c>
       <c r="E19">
-        <v>1.072564846509005</v>
+        <v>1.027388992652641</v>
       </c>
       <c r="F19">
-        <v>1.077368313301</v>
+        <v>1.035716643154869</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048818711528179</v>
+        <v>1.054102527866127</v>
       </c>
       <c r="J19">
-        <v>1.065839784284839</v>
+        <v>1.034104488114817</v>
       </c>
       <c r="K19">
-        <v>1.06588740163838</v>
+        <v>1.042519966787931</v>
       </c>
       <c r="L19">
-        <v>1.075753978741115</v>
+        <v>1.040689028745085</v>
       </c>
       <c r="M19">
-        <v>1.080542281050539</v>
+        <v>1.0488846859814</v>
       </c>
       <c r="N19">
-        <v>1.025479556400709</v>
+        <v>1.013848295178307</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05945085019508</v>
+        <v>1.004907468675551</v>
       </c>
       <c r="D20">
-        <v>1.062306214669501</v>
+        <v>1.027301869369165</v>
       </c>
       <c r="E20">
-        <v>1.072123047543688</v>
+        <v>1.025079158614481</v>
       </c>
       <c r="F20">
-        <v>1.076944627856291</v>
+        <v>1.033484067937789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04869361628875</v>
+        <v>1.053212240722583</v>
       </c>
       <c r="J20">
-        <v>1.065493117047901</v>
+        <v>1.032250517626225</v>
       </c>
       <c r="K20">
-        <v>1.065590353589108</v>
+        <v>1.04088105540216</v>
       </c>
       <c r="L20">
-        <v>1.075375056371651</v>
+        <v>1.038694904283123</v>
       </c>
       <c r="M20">
-        <v>1.080181090732997</v>
+        <v>1.04696262931749</v>
       </c>
       <c r="N20">
-        <v>1.025359583856562</v>
+        <v>1.013192983503774</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.057932903276356</v>
+        <v>0.9964125546589045</v>
       </c>
       <c r="D21">
-        <v>1.061133734560853</v>
+        <v>1.020808751394829</v>
       </c>
       <c r="E21">
-        <v>1.070686321473285</v>
+        <v>1.017382185766664</v>
       </c>
       <c r="F21">
-        <v>1.075566602592205</v>
+        <v>1.026044299764243</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048284273074443</v>
+        <v>1.050223427061223</v>
       </c>
       <c r="J21">
-        <v>1.064364610813168</v>
+        <v>1.026061035004221</v>
       </c>
       <c r="K21">
-        <v>1.064622779346833</v>
+        <v>1.035406336035212</v>
       </c>
       <c r="L21">
-        <v>1.074141979932289</v>
+        <v>1.032041564276272</v>
       </c>
       <c r="M21">
-        <v>1.079005456268362</v>
+        <v>1.040548501805649</v>
       </c>
       <c r="N21">
-        <v>1.024968683834582</v>
+        <v>1.011004322553474</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.056977863009681</v>
+        <v>0.990891350803551</v>
       </c>
       <c r="D22">
-        <v>1.060395767839757</v>
+        <v>1.016594603919262</v>
       </c>
       <c r="E22">
-        <v>1.069782675078682</v>
+        <v>1.012388731819633</v>
       </c>
       <c r="F22">
-        <v>1.074699721076656</v>
+        <v>1.021217659152955</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048024868197976</v>
+        <v>1.048267521011358</v>
       </c>
       <c r="J22">
-        <v>1.063653942137919</v>
+        <v>1.022036603729273</v>
       </c>
       <c r="K22">
-        <v>1.064013002828604</v>
+        <v>1.031844334008003</v>
       </c>
       <c r="L22">
-        <v>1.073365788833646</v>
+        <v>1.027718696754809</v>
       </c>
       <c r="M22">
-        <v>1.078265223955729</v>
+        <v>1.036380191388572</v>
       </c>
       <c r="N22">
-        <v>1.024722247479185</v>
+        <v>1.009580676679661</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.057484210664048</v>
+        <v>0.9938361689547958</v>
       </c>
       <c r="D23">
-        <v>1.060787052887062</v>
+        <v>1.018841665007777</v>
       </c>
       <c r="E23">
-        <v>1.070261746533988</v>
+        <v>1.015051166776693</v>
       </c>
       <c r="F23">
-        <v>1.07515931620109</v>
+        <v>1.023791147144901</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048162576871511</v>
+        <v>1.049311953556976</v>
       </c>
       <c r="J23">
-        <v>1.064030789310813</v>
+        <v>1.024183214996577</v>
       </c>
       <c r="K23">
-        <v>1.064336392675777</v>
+        <v>1.033744493633368</v>
       </c>
       <c r="L23">
-        <v>1.073777349393523</v>
+        <v>1.030024192664538</v>
       </c>
       <c r="M23">
-        <v>1.078657736916524</v>
+        <v>1.038603333180528</v>
       </c>
       <c r="N23">
-        <v>1.024852951100231</v>
+        <v>1.01034008690283</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.059476288131378</v>
+        <v>1.005047014838969</v>
       </c>
       <c r="D24">
-        <v>1.062325858378754</v>
+        <v>1.027408619257427</v>
       </c>
       <c r="E24">
-        <v>1.072147129273328</v>
+        <v>1.025205738437032</v>
       </c>
       <c r="F24">
-        <v>1.076967723019939</v>
+        <v>1.033606415167326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048700444578926</v>
+        <v>1.05326111143657</v>
       </c>
       <c r="J24">
-        <v>1.065512017628941</v>
+        <v>1.032352158764487</v>
       </c>
       <c r="K24">
-        <v>1.065606551131031</v>
+        <v>1.040970918547403</v>
       </c>
       <c r="L24">
-        <v>1.075395713909337</v>
+        <v>1.038804214249714</v>
       </c>
       <c r="M24">
-        <v>1.080200782566128</v>
+        <v>1.047067993625072</v>
       </c>
       <c r="N24">
-        <v>1.025366126191374</v>
+        <v>1.01322891362905</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.061785310000376</v>
+        <v>1.017350167828543</v>
       </c>
       <c r="D25">
-        <v>1.064108232223333</v>
+        <v>1.03683012796133</v>
       </c>
       <c r="E25">
-        <v>1.074333729057744</v>
+        <v>1.036383582147823</v>
       </c>
       <c r="F25">
-        <v>1.079064365927491</v>
+        <v>1.044409737243664</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049315789784432</v>
+        <v>1.057537125818333</v>
       </c>
       <c r="J25">
-        <v>1.067226067466837</v>
+        <v>1.041307412735494</v>
       </c>
       <c r="K25">
-        <v>1.067074375942775</v>
+        <v>1.048882394081643</v>
       </c>
       <c r="L25">
-        <v>1.077269886388566</v>
+        <v>1.048442174864151</v>
       </c>
       <c r="M25">
-        <v>1.081986859579553</v>
+        <v>1.056355657874476</v>
       </c>
       <c r="N25">
-        <v>1.025958784427353</v>
+        <v>1.01639269131157</v>
       </c>
     </row>
   </sheetData>
